--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/F12-Gp1ba.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/F12-Gp1ba.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>Gp1ba</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>F12</t>
-  </si>
-  <si>
-    <t>Gp1ba</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1209416666666667</v>
+        <v>0.1078623333333333</v>
       </c>
       <c r="H2">
-        <v>0.362825</v>
+        <v>0.323587</v>
       </c>
       <c r="I2">
-        <v>0.5285819595228521</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.5285819595228521</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.386787</v>
+        <v>3.624854</v>
       </c>
       <c r="N2">
-        <v>7.160361</v>
+        <v>10.874562</v>
       </c>
       <c r="O2">
-        <v>0.2248318673684458</v>
+        <v>0.2900317783616697</v>
       </c>
       <c r="P2">
-        <v>0.2248318673684458</v>
+        <v>0.2900317783616697</v>
       </c>
       <c r="Q2">
-        <v>0.2886619977583333</v>
+        <v>0.3909852104326667</v>
       </c>
       <c r="R2">
-        <v>2.597957979825</v>
+        <v>3.518866893894</v>
       </c>
       <c r="S2">
-        <v>0.1188420690167951</v>
+        <v>0.2900317783616697</v>
       </c>
       <c r="T2">
-        <v>0.1188420690167951</v>
+        <v>0.2900317783616697</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1209416666666667</v>
+        <v>0.1078623333333333</v>
       </c>
       <c r="H3">
-        <v>0.362825</v>
+        <v>0.323587</v>
       </c>
       <c r="I3">
-        <v>0.5285819595228521</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.5285819595228521</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>14.626475</v>
       </c>
       <c r="O3">
-        <v>0.4592642308492391</v>
+        <v>0.3900977855855255</v>
       </c>
       <c r="P3">
-        <v>0.4592642308492391</v>
+        <v>0.3900977855855255</v>
       </c>
       <c r="Q3">
-        <v>0.5896500879861111</v>
+        <v>0.5258819073138888</v>
       </c>
       <c r="R3">
-        <v>5.306850791875</v>
+        <v>4.732937165825</v>
       </c>
       <c r="S3">
-        <v>0.2427587870810463</v>
+        <v>0.3900977855855255</v>
       </c>
       <c r="T3">
-        <v>0.2427587870810463</v>
+        <v>0.3900977855855255</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1209416666666667</v>
+        <v>0.1078623333333333</v>
       </c>
       <c r="H4">
-        <v>0.362825</v>
+        <v>0.323587</v>
       </c>
       <c r="I4">
-        <v>0.5285819595228521</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.5285819595228521</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.466781666666666</v>
+        <v>2.893069333333333</v>
       </c>
       <c r="N4">
-        <v>7.400345</v>
+        <v>8.679207999999999</v>
       </c>
       <c r="O4">
-        <v>0.2323672487351883</v>
+        <v>0.2314802316645793</v>
       </c>
       <c r="P4">
-        <v>0.2323672487351882</v>
+        <v>0.2314802316645793</v>
       </c>
       <c r="Q4">
-        <v>0.2983366860694444</v>
+        <v>0.3120532087884444</v>
       </c>
       <c r="R4">
-        <v>2.685030174625</v>
+        <v>2.808478879096</v>
       </c>
       <c r="S4">
-        <v>0.1228251356653798</v>
+        <v>0.2314802316645793</v>
       </c>
       <c r="T4">
-        <v>0.1228251356653798</v>
+        <v>0.2314802316645793</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +708,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1209416666666667</v>
+        <v>0.1078623333333333</v>
       </c>
       <c r="H5">
-        <v>0.362825</v>
+        <v>0.323587</v>
       </c>
       <c r="I5">
-        <v>0.5285819595228521</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.5285819595228521</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,276 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8868146666666666</v>
+        <v>1.104712</v>
       </c>
       <c r="N5">
-        <v>2.660444</v>
+        <v>3.314136</v>
       </c>
       <c r="O5">
-        <v>0.08353665304712675</v>
+        <v>0.08839020438822554</v>
       </c>
       <c r="P5">
-        <v>0.08353665304712675</v>
+        <v>0.08839020438822554</v>
       </c>
       <c r="Q5">
-        <v>0.1072528438111111</v>
+        <v>0.1191568139813333</v>
       </c>
       <c r="R5">
-        <v>0.9652755943</v>
+        <v>1.072411325832</v>
       </c>
       <c r="S5">
-        <v>0.0441559677596309</v>
+        <v>0.08839020438822554</v>
       </c>
       <c r="T5">
-        <v>0.0441559677596309</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.1078623333333333</v>
-      </c>
-      <c r="H6">
-        <v>0.323587</v>
-      </c>
-      <c r="I6">
-        <v>0.4714180404771479</v>
-      </c>
-      <c r="J6">
-        <v>0.4714180404771479</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>2.386787</v>
-      </c>
-      <c r="N6">
-        <v>7.160361</v>
-      </c>
-      <c r="O6">
-        <v>0.2248318673684458</v>
-      </c>
-      <c r="P6">
-        <v>0.2248318673684458</v>
-      </c>
-      <c r="Q6">
-        <v>0.2574444149896667</v>
-      </c>
-      <c r="R6">
-        <v>2.316999734907</v>
-      </c>
-      <c r="S6">
-        <v>0.1059897983516507</v>
-      </c>
-      <c r="T6">
-        <v>0.1059897983516507</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.1078623333333333</v>
-      </c>
-      <c r="H7">
-        <v>0.323587</v>
-      </c>
-      <c r="I7">
-        <v>0.4714180404771479</v>
-      </c>
-      <c r="J7">
-        <v>0.4714180404771479</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>4.875491666666666</v>
-      </c>
-      <c r="N7">
-        <v>14.626475</v>
-      </c>
-      <c r="O7">
-        <v>0.4592642308492391</v>
-      </c>
-      <c r="P7">
-        <v>0.4592642308492391</v>
-      </c>
-      <c r="Q7">
-        <v>0.5258819073138888</v>
-      </c>
-      <c r="R7">
-        <v>4.732937165825</v>
-      </c>
-      <c r="S7">
-        <v>0.2165054437681928</v>
-      </c>
-      <c r="T7">
-        <v>0.2165054437681928</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.1078623333333333</v>
-      </c>
-      <c r="H8">
-        <v>0.323587</v>
-      </c>
-      <c r="I8">
-        <v>0.4714180404771479</v>
-      </c>
-      <c r="J8">
-        <v>0.4714180404771479</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>2.466781666666666</v>
-      </c>
-      <c r="N8">
-        <v>7.400345</v>
-      </c>
-      <c r="O8">
-        <v>0.2323672487351883</v>
-      </c>
-      <c r="P8">
-        <v>0.2323672487351882</v>
-      </c>
-      <c r="Q8">
-        <v>0.2660728263905555</v>
-      </c>
-      <c r="R8">
-        <v>2.394655437515</v>
-      </c>
-      <c r="S8">
-        <v>0.1095421130698085</v>
-      </c>
-      <c r="T8">
-        <v>0.1095421130698085</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.1078623333333333</v>
-      </c>
-      <c r="H9">
-        <v>0.323587</v>
-      </c>
-      <c r="I9">
-        <v>0.4714180404771479</v>
-      </c>
-      <c r="J9">
-        <v>0.4714180404771479</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.8868146666666666</v>
-      </c>
-      <c r="N9">
-        <v>2.660444</v>
-      </c>
-      <c r="O9">
-        <v>0.08353665304712675</v>
-      </c>
-      <c r="P9">
-        <v>0.08353665304712675</v>
-      </c>
-      <c r="Q9">
-        <v>0.09565389918088889</v>
-      </c>
-      <c r="R9">
-        <v>0.8608850926280001</v>
-      </c>
-      <c r="S9">
-        <v>0.03938068528749585</v>
-      </c>
-      <c r="T9">
-        <v>0.03938068528749585</v>
+        <v>0.08839020438822554</v>
       </c>
     </row>
   </sheetData>
